--- a/data/staff_codes.xlsx
+++ b/data/staff_codes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B142"/>
+  <dimension ref="A1:B143"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2137,6 +2137,18 @@
         </is>
       </c>
     </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>FAC_141</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/staff_codes.xlsx
+++ b/data/staff_codes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B143"/>
+  <dimension ref="A1:B141"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1756,7 +1756,7 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>MINOR_4</t>
+          <t>Ms. M. Vijaya Sakthi</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
@@ -1768,7 +1768,7 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>MINOR_6</t>
+          <t>Ms. R. Nalini</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
@@ -1780,7 +1780,7 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>Ms. M. Vijaya Sakthi</t>
+          <t>Ms. S. Sowndarya</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
@@ -1792,7 +1792,7 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>Ms. R. Nalini</t>
+          <t>Ms. V. Karthika</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
@@ -1804,7 +1804,7 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>Ms. S. Sowndarya</t>
+          <t>Shri B. Ramneshkar</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
@@ -1816,7 +1816,7 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>Ms. V. Karthika</t>
+          <t>Shri B. Senthilkumar</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
@@ -1828,7 +1828,7 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>Shri B. Ramneshkar</t>
+          <t>Shri G. Ramakrishnan</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
@@ -1840,7 +1840,7 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>Shri B. Senthilkumar</t>
+          <t>Shri K. Arunkumar</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
@@ -1852,7 +1852,7 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>Shri G. Ramakrishnan</t>
+          <t>Shri K. M. Murugappan</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
@@ -1864,7 +1864,7 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>Shri K. Arunkumar</t>
+          <t>Shri M. B. Sundhararaj</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
@@ -1876,7 +1876,7 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>Shri K. M. Murugappan</t>
+          <t>Shri N. Senthil Anand</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
@@ -1888,7 +1888,7 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>Shri M. B. Sundhararaj</t>
+          <t>Shri P. Rajendran</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
@@ -1900,7 +1900,7 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>Shri N. Senthil Anand</t>
+          <t>Shri R. Sreedharan</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
@@ -1912,7 +1912,7 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>Shri P. Rajendran</t>
+          <t>Shri R. Vignesh</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
@@ -1924,7 +1924,7 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>Shri R. Sreedharan</t>
+          <t>Shri R. Vijay Sai</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
@@ -1936,7 +1936,7 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>Shri R. Vignesh</t>
+          <t>Shri S. Ananthakrishnan</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
@@ -1948,7 +1948,7 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>Shri R. Vijay Sai</t>
+          <t>Shri S. Dickson</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
@@ -1960,7 +1960,7 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>Shri S. Ananthakrishnan</t>
+          <t>Shri S. Nesakumaran</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
@@ -1972,7 +1972,7 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>Shri S. Dickson</t>
+          <t>Shri V. Chandrasekar</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
@@ -1984,7 +1984,7 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>Shri S. Nesakumaran</t>
+          <t>Shri V. P. Akniraj</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
@@ -1996,7 +1996,7 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>Shri V. Chandrasekar</t>
+          <t>Shri V. Pugazhenthi</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
@@ -2008,7 +2008,7 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>Shri V. P. Akniraj</t>
+          <t>Shri. M. Balamurali</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
@@ -2020,7 +2020,7 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>Shri V. Pugazhenthi</t>
+          <t>Smt. A. Srilakshmi</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
@@ -2032,7 +2032,7 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>Shri. M. Balamurali</t>
+          <t>Smt. I. Epistle</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
@@ -2044,7 +2044,7 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>Smt. A. Srilakshmi</t>
+          <t>Smt. L. Gowri</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
@@ -2056,7 +2056,7 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>Smt. I. Epistle</t>
+          <t>Smt. M. Indhumathi</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
@@ -2068,7 +2068,7 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>Smt. L. Gowri</t>
+          <t>Smt. P. Silambarasi</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
@@ -2080,7 +2080,7 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>Smt. M. Indhumathi</t>
+          <t>Smt. S. Majina Baby</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
@@ -2092,7 +2092,7 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>Smt. P. Silambarasi</t>
+          <t>Smt. T. M. Latha</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
@@ -2104,7 +2104,7 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>Smt. S. Majina Baby</t>
+          <t>Smt. W. R. Helen</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
@@ -2116,36 +2116,12 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>Smt. T. M. Latha</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
           <t>FAC_139</t>
-        </is>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" t="inlineStr">
-        <is>
-          <t>Smt. W. R. Helen</t>
-        </is>
-      </c>
-      <c r="B142" t="inlineStr">
-        <is>
-          <t>FAC_140</t>
-        </is>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="B143" t="inlineStr">
-        <is>
-          <t>FAC_141</t>
         </is>
       </c>
     </row>
